--- a/db.xlsx
+++ b/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>Время</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>Теория вероятностей</t>
+  </si>
+  <si>
+    <t>ФИТ-232</t>
+  </si>
+  <si>
+    <t>Программирование</t>
+  </si>
+  <si>
+    <t>Физкультура</t>
+  </si>
+  <si>
+    <t>Матанализ</t>
   </si>
 </sst>
 </file>
@@ -379,18 +391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -401,7 +413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -412,7 +424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -423,7 +435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -434,7 +446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -445,7 +457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -456,7 +468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -467,7 +479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -478,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -489,7 +501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -498,6 +510,61 @@
       </c>
       <c r="C10">
         <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
